--- a/form3/belem_atualizado_form3.xlsx
+++ b/form3/belem_atualizado_form3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="belem" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="belem" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/form3/belem_atualizado_form3.xlsx
+++ b/form3/belem_atualizado_form3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="belem" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="belem" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/form3/belem_atualizado_form3.xlsx
+++ b/form3/belem_atualizado_form3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="belem" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="belem" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -493,7 +493,7 @@
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="32" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
@@ -632,9 +632,9 @@
           <t>Jackson Souza Soeiro</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
